--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3615.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3615.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.284760636200094</v>
+        <v>1.661749362945557</v>
       </c>
       <c r="B1">
-        <v>2.335615156712553</v>
+        <v>2.899363994598389</v>
       </c>
       <c r="C1">
-        <v>3.290106019573662</v>
+        <v>3.6698899269104</v>
       </c>
       <c r="D1">
-        <v>3.075590680957966</v>
+        <v>1.425180673599243</v>
       </c>
       <c r="E1">
-        <v>0.9132300299679939</v>
+        <v>0.9529051780700684</v>
       </c>
     </row>
   </sheetData>
